--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20250928_100758.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20250928_100758.xlsx
@@ -5291,7 +5291,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
